--- a/RawFormat.xlsx
+++ b/RawFormat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\src\Ses2000Raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19BF3C55-0F2B-4E87-A52E-A1092FD6885C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44CE2F23-0A6D-4C0C-AEA4-194BC7617F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31530" yWindow="2775" windowWidth="21600" windowHeight="12645" xr2:uid="{DBC32B93-2348-49FA-A6BE-CBC8FADC4194}"/>
+    <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="15720" xr2:uid="{DBC32B93-2348-49FA-A6BE-CBC8FADC4194}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="281">
   <si>
     <t>PropertyClass</t>
     <phoneticPr fontId="1"/>
@@ -946,6 +946,14 @@
   </si>
   <si>
     <t>Date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SisString5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SisString6</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1377,7 +1385,7 @@
   <dimension ref="A1:H81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1491,7 +1499,7 @@
         <v>57</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>103</v>
+        <v>279</v>
       </c>
       <c r="H8" t="s">
         <v>264</v>
@@ -1505,7 +1513,7 @@
         <v>58</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>105</v>
+        <v>280</v>
       </c>
       <c r="H9" t="s">
         <v>265</v>
@@ -5695,6 +5703,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100E004222815C2AB4995F3DF6AF73A9BF8" ma:contentTypeVersion="1" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="d45eca35ec901c3bfe628c3524029242">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="ad692337-3574-4e93-81a2-fffec39a0a04" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f56f7290afe4f2954cdf0f64e1b1520c" ns3:_="">
     <xsd:import namespace="ad692337-3574-4e93-81a2-fffec39a0a04"/>
@@ -5820,22 +5843,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EA5F777-2686-414F-ADF8-4A47CB7ABB64}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="ad692337-3574-4e93-81a2-fffec39a0a04"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{245C82D2-1037-4F8F-969D-4F87035E4FCD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E784CE3-65A0-4BAF-95BF-A092F7447857}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5851,28 +5883,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{245C82D2-1037-4F8F-969D-4F87035E4FCD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EA5F777-2686-414F-ADF8-4A47CB7ABB64}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="ad692337-3574-4e93-81a2-fffec39a0a04"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>